--- a/public/sphreadsheets/excel/create_item_bulk_template.xlsx
+++ b/public/sphreadsheets/excel/create_item_bulk_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F.LIE\MyProject\BackEndProject\general-pos-be\public\sphreadsheets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473C5D94-ADF6-4E1E-827A-BC377479F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545E12F-4A6A-46F2-8899-9C30489C0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8ED3CB7-97E0-4978-BEC4-9CF7B189B2FC}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>URL Gambar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>active</t>
   </si>
@@ -63,15 +57,9 @@
     <t>Nasi Putih</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>Es Sengkit</t>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
     <t>Es Teh</t>
   </si>
   <si>
@@ -84,32 +72,55 @@
     <t>Kol Goreng</t>
   </si>
   <si>
-    <t>Business ID (Wajib)</t>
-  </si>
-  <si>
-    <t>Status (active / inactive) (Wajib)</t>
-  </si>
-  <si>
-    <t>Nama Menu (Wajib)</t>
-  </si>
-  <si>
-    <t>Kategori (makanan / minuman / paket) (Wajib)</t>
-  </si>
-  <si>
-    <t>Harga (Wajib)</t>
-  </si>
-  <si>
     <t>Daftar Menu</t>
+  </si>
+  <si>
+    <t>https://cdn1-production-images-kly.akamaized.net/3OUUip3zNYI5J8n86-rn8SX3bqs=/500x500/smart/filters:quality(75):strip_icc():format(webp)/kly-media-production/medias/4346317/original/076918500_1677939782-WhatsApp_Image_2023-03-04_at_18.57.22.jpeg</t>
+  </si>
+  <si>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>businessId</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>makanan</t>
+  </si>
+  <si>
+    <t>minuman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,18 +164,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,7 +494,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,253 +509,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
         <v>5000</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
         <v>5000</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{8756B5FC-96D1-4DA1-A8ED-2EF0A68D02E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>